--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H2">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.04110541018131</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N2">
-        <v>1.04110541018131</v>
+        <v>1.796325</v>
       </c>
       <c r="O2">
-        <v>0.1921164921339041</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P2">
-        <v>0.1921164921339041</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q2">
-        <v>38.09044413363596</v>
+        <v>22.18810959804167</v>
       </c>
       <c r="R2">
-        <v>38.09044413363596</v>
+        <v>199.692986382375</v>
       </c>
       <c r="S2">
-        <v>0.001867479897306294</v>
+        <v>0.0006302958855006019</v>
       </c>
       <c r="T2">
-        <v>0.001867479897306294</v>
+        <v>0.0006302958855006019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H3">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26868193787949</v>
+        <v>1.09856</v>
       </c>
       <c r="N3">
-        <v>2.26868193787949</v>
+        <v>3.29568</v>
       </c>
       <c r="O3">
-        <v>0.4186427343577547</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P3">
-        <v>0.4186427343577547</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q3">
-        <v>83.00322115965027</v>
+        <v>40.70806175946667</v>
       </c>
       <c r="R3">
-        <v>83.00322115965027</v>
+        <v>366.3725558352</v>
       </c>
       <c r="S3">
-        <v>0.004069441836474562</v>
+        <v>0.001156390710994182</v>
       </c>
       <c r="T3">
-        <v>0.004069441836474562</v>
+        <v>0.001156390710994182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H4">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.10934871161525</v>
+        <v>2.281579</v>
       </c>
       <c r="N4">
-        <v>2.10934871161525</v>
+        <v>6.844737</v>
       </c>
       <c r="O4">
-        <v>0.3892407735083412</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P4">
-        <v>0.3892407735083412</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q4">
-        <v>77.1737697954574</v>
+        <v>84.54582256872834</v>
       </c>
       <c r="R4">
-        <v>77.1737697954574</v>
+        <v>760.9124031185549</v>
       </c>
       <c r="S4">
-        <v>0.003783638310614867</v>
+        <v>0.002401686536920509</v>
       </c>
       <c r="T4">
-        <v>0.003783638310614867</v>
+        <v>0.002401686536920509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4988386781171</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H5">
-        <v>48.4988386781171</v>
+        <v>111.167515</v>
       </c>
       <c r="I5">
-        <v>0.0128855005387873</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J5">
-        <v>0.0128855005387873</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.04110541018131</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N5">
-        <v>1.04110541018131</v>
+        <v>10.14362</v>
       </c>
       <c r="O5">
-        <v>0.1921164921339041</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P5">
-        <v>0.1921164921339041</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q5">
-        <v>50.49240333529828</v>
+        <v>125.2934476115889</v>
       </c>
       <c r="R5">
-        <v>50.49240333529828</v>
+        <v>1127.6410285043</v>
       </c>
       <c r="S5">
-        <v>0.002475517162901348</v>
+        <v>0.003559201118996628</v>
       </c>
       <c r="T5">
-        <v>0.002475517162901348</v>
+        <v>0.003559201118996627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4988386781171</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H6">
-        <v>48.4988386781171</v>
+        <v>111.167515</v>
       </c>
       <c r="I6">
-        <v>0.0128855005387873</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J6">
-        <v>0.0128855005387873</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.26868193787949</v>
+        <v>0.6493676666666667</v>
       </c>
       <c r="N6">
-        <v>2.26868193787949</v>
+        <v>1.948103</v>
       </c>
       <c r="O6">
-        <v>0.4186427343577547</v>
+        <v>0.08107480024212949</v>
       </c>
       <c r="P6">
-        <v>0.4186427343577547</v>
+        <v>0.0810748002421295</v>
       </c>
       <c r="Q6">
-        <v>110.0284393171755</v>
+        <v>24.06286327489389</v>
       </c>
       <c r="R6">
-        <v>110.0284393171755</v>
+        <v>216.565769474045</v>
       </c>
       <c r="S6">
-        <v>0.005394421179126238</v>
+        <v>0.0006835518658546639</v>
       </c>
       <c r="T6">
-        <v>0.005394421179126238</v>
+        <v>0.000683551865854664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H7">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.10934871161525</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N7">
-        <v>2.10934871161525</v>
+        <v>1.796325</v>
       </c>
       <c r="O7">
-        <v>0.3892407735083412</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P7">
-        <v>0.3892407735083412</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q7">
-        <v>102.3009628805222</v>
+        <v>30.47714592614166</v>
       </c>
       <c r="R7">
-        <v>102.3009628805222</v>
+        <v>274.294313335275</v>
       </c>
       <c r="S7">
-        <v>0.005015562196759718</v>
+        <v>0.0008657618890049098</v>
       </c>
       <c r="T7">
-        <v>0.005015562196759718</v>
+        <v>0.0008657618890049098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2004.75006600789</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H8">
-        <v>2004.75006600789</v>
+        <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.5326356003516877</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J8">
-        <v>0.5326356003516877</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04110541018131</v>
+        <v>1.09856</v>
       </c>
       <c r="N8">
-        <v>1.04110541018131</v>
+        <v>3.29568</v>
       </c>
       <c r="O8">
-        <v>0.1921164921339041</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P8">
-        <v>0.1921164921339041</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q8">
-        <v>2087.156139782152</v>
+        <v>55.91578377290666</v>
       </c>
       <c r="R8">
-        <v>2087.156139782152</v>
+        <v>503.24205395616</v>
       </c>
       <c r="S8">
-        <v>0.1023280831252023</v>
+        <v>0.001588395274995171</v>
       </c>
       <c r="T8">
-        <v>0.1023280831252023</v>
+        <v>0.001588395274995171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2004.75006600789</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H9">
-        <v>2004.75006600789</v>
+        <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.5326356003516877</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J9">
-        <v>0.5326356003516877</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26868193787949</v>
+        <v>2.281579</v>
       </c>
       <c r="N9">
-        <v>2.26868193787949</v>
+        <v>6.844737</v>
       </c>
       <c r="O9">
-        <v>0.4186427343577547</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P9">
-        <v>0.4186427343577547</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q9">
-        <v>4548.140264714815</v>
+        <v>116.1304598973243</v>
       </c>
       <c r="R9">
-        <v>4548.140264714815</v>
+        <v>1045.174139075919</v>
       </c>
       <c r="S9">
-        <v>0.2229840241475148</v>
+        <v>0.003298908847152826</v>
       </c>
       <c r="T9">
-        <v>0.2229840241475148</v>
+        <v>0.003298908847152826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2004.75006600789</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H10">
-        <v>2004.75006600789</v>
+        <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.5326356003516877</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J10">
-        <v>0.5326356003516877</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10934871161525</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N10">
-        <v>2.10934871161525</v>
+        <v>10.14362</v>
       </c>
       <c r="O10">
-        <v>0.3892407735083412</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P10">
-        <v>0.3892407735083412</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q10">
-        <v>4228.71696884433</v>
+        <v>172.1005870092156</v>
       </c>
       <c r="R10">
-        <v>4228.71696884433</v>
+        <v>1548.90528308294</v>
       </c>
       <c r="S10">
-        <v>0.2073234930789706</v>
+        <v>0.004888847849107475</v>
       </c>
       <c r="T10">
-        <v>0.2073234930789706</v>
+        <v>0.004888847849107474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1668.20011186028</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H11">
-        <v>1668.20011186028</v>
+        <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.4432187249440179</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J11">
-        <v>0.4432187249440179</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.04110541018131</v>
+        <v>0.6493676666666667</v>
       </c>
       <c r="N11">
-        <v>1.04110541018131</v>
+        <v>1.948103</v>
       </c>
       <c r="O11">
-        <v>0.1921164921339041</v>
+        <v>0.08107480024212949</v>
       </c>
       <c r="P11">
-        <v>0.1921164921339041</v>
+        <v>0.0810748002421295</v>
       </c>
       <c r="Q11">
-        <v>1736.772161722804</v>
+        <v>33.05227027968456</v>
       </c>
       <c r="R11">
-        <v>1736.772161722804</v>
+        <v>297.470432517161</v>
       </c>
       <c r="S11">
-        <v>0.08514962668430642</v>
+        <v>0.0009389132441268322</v>
       </c>
       <c r="T11">
-        <v>0.08514962668430642</v>
+        <v>0.0009389132441268323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1668.20011186028</v>
+        <v>2007.446289</v>
       </c>
       <c r="H12">
-        <v>1668.20011186028</v>
+        <v>6022.338867</v>
       </c>
       <c r="I12">
-        <v>0.4432187249440179</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J12">
-        <v>0.4432187249440179</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.26868193787949</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N12">
-        <v>2.26868193787949</v>
+        <v>1.796325</v>
       </c>
       <c r="O12">
-        <v>0.4186427343577547</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P12">
-        <v>0.4186427343577547</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q12">
-        <v>3784.615462545962</v>
+        <v>1202.008651695975</v>
       </c>
       <c r="R12">
-        <v>3784.615462545962</v>
+        <v>10818.07786526377</v>
       </c>
       <c r="S12">
-        <v>0.1855502989291212</v>
+        <v>0.034145365298131</v>
       </c>
       <c r="T12">
-        <v>0.1855502989291212</v>
+        <v>0.034145365298131</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1668.20011186028</v>
+        <v>2007.446289</v>
       </c>
       <c r="H13">
-        <v>1668.20011186028</v>
+        <v>6022.338867</v>
       </c>
       <c r="I13">
-        <v>0.4432187249440179</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J13">
-        <v>0.4432187249440179</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.10934871161525</v>
+        <v>1.09856</v>
       </c>
       <c r="N13">
-        <v>2.10934871161525</v>
+        <v>3.29568</v>
       </c>
       <c r="O13">
-        <v>0.3892407735083412</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P13">
-        <v>0.3892407735083412</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q13">
-        <v>3518.815756668898</v>
+        <v>2205.30019524384</v>
       </c>
       <c r="R13">
-        <v>3518.815756668898</v>
+        <v>19847.70175719456</v>
       </c>
       <c r="S13">
-        <v>0.1725187993305903</v>
+        <v>0.06264578932305923</v>
       </c>
       <c r="T13">
-        <v>0.1725187993305903</v>
+        <v>0.06264578932305923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.79484643701448</v>
+        <v>2007.446289</v>
       </c>
       <c r="H14">
-        <v>5.79484643701448</v>
+        <v>6022.338867</v>
       </c>
       <c r="I14">
-        <v>0.001539614121111543</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J14">
-        <v>0.001539614121111543</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.04110541018131</v>
+        <v>2.281579</v>
       </c>
       <c r="N14">
-        <v>1.04110541018131</v>
+        <v>6.844737</v>
       </c>
       <c r="O14">
-        <v>0.1921164921339041</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P14">
-        <v>0.1921164921339041</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q14">
-        <v>6.033045976745663</v>
+        <v>4580.147296610332</v>
       </c>
       <c r="R14">
-        <v>6.033045976745663</v>
+        <v>41221.32566949298</v>
       </c>
       <c r="S14">
-        <v>0.0002957852641877735</v>
+        <v>0.1301078842829852</v>
       </c>
       <c r="T14">
-        <v>0.0002957852641877735</v>
+        <v>0.1301078842829851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.79484643701448</v>
+        <v>2007.446289</v>
       </c>
       <c r="H15">
-        <v>5.79484643701448</v>
+        <v>6022.338867</v>
       </c>
       <c r="I15">
-        <v>0.001539614121111543</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J15">
-        <v>0.001539614121111543</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.26868193787949</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N15">
-        <v>2.26868193787949</v>
+        <v>10.14362</v>
       </c>
       <c r="O15">
-        <v>0.4186427343577547</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P15">
-        <v>0.4186427343577547</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q15">
-        <v>13.14666344444007</v>
+        <v>6787.590775342062</v>
       </c>
       <c r="R15">
-        <v>13.14666344444007</v>
+        <v>61088.31697807855</v>
       </c>
       <c r="S15">
-        <v>0.0006445482655179477</v>
+        <v>0.1928145576916358</v>
       </c>
       <c r="T15">
-        <v>0.0006445482655179477</v>
+        <v>0.1928145576916357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2007.446289</v>
+      </c>
+      <c r="H16">
+        <v>6022.338867</v>
+      </c>
+      <c r="I16">
+        <v>0.4567440273772037</v>
+      </c>
+      <c r="J16">
+        <v>0.4567440273772037</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.948103</v>
+      </c>
+      <c r="O16">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P16">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q16">
+        <v>1303.570712646589</v>
+      </c>
+      <c r="R16">
+        <v>11732.1364138193</v>
+      </c>
+      <c r="S16">
+        <v>0.03703043078139251</v>
+      </c>
+      <c r="T16">
+        <v>0.03703043078139252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>5.79484643701448</v>
-      </c>
-      <c r="H16">
-        <v>5.79484643701448</v>
-      </c>
-      <c r="I16">
-        <v>0.001539614121111543</v>
-      </c>
-      <c r="J16">
-        <v>0.001539614121111543</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.10934871161525</v>
-      </c>
-      <c r="N16">
-        <v>2.10934871161525</v>
-      </c>
-      <c r="O16">
-        <v>0.3892407735083412</v>
-      </c>
-      <c r="P16">
-        <v>0.3892407735083412</v>
-      </c>
-      <c r="Q16">
-        <v>12.22335186592472</v>
-      </c>
-      <c r="R16">
-        <v>12.22335186592472</v>
-      </c>
-      <c r="S16">
-        <v>0.0005992805914058221</v>
-      </c>
-      <c r="T16">
-        <v>0.0005992805914058221</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2293.273345666667</v>
+      </c>
+      <c r="H17">
+        <v>6879.820037</v>
+      </c>
+      <c r="I17">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="J17">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5987749999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.796325</v>
+      </c>
+      <c r="O17">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="P17">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="Q17">
+        <v>1373.154747551558</v>
+      </c>
+      <c r="R17">
+        <v>12358.39272796402</v>
+      </c>
+      <c r="S17">
+        <v>0.03900709899205446</v>
+      </c>
+      <c r="T17">
+        <v>0.03900709899205446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2293.273345666667</v>
+      </c>
+      <c r="H18">
+        <v>6879.820037</v>
+      </c>
+      <c r="I18">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="J18">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.09856</v>
+      </c>
+      <c r="N18">
+        <v>3.29568</v>
+      </c>
+      <c r="O18">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="P18">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="Q18">
+        <v>2519.298366615574</v>
+      </c>
+      <c r="R18">
+        <v>22673.68529954016</v>
+      </c>
+      <c r="S18">
+        <v>0.07156551069886244</v>
+      </c>
+      <c r="T18">
+        <v>0.07156551069886244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2293.273345666667</v>
+      </c>
+      <c r="H19">
+        <v>6879.820037</v>
+      </c>
+      <c r="I19">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="J19">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.281579</v>
+      </c>
+      <c r="N19">
+        <v>6.844737</v>
+      </c>
+      <c r="O19">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="P19">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="Q19">
+        <v>5232.284306732809</v>
+      </c>
+      <c r="R19">
+        <v>47090.55876059528</v>
+      </c>
+      <c r="S19">
+        <v>0.1486330890755169</v>
+      </c>
+      <c r="T19">
+        <v>0.1486330890755169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2293.273345666667</v>
+      </c>
+      <c r="H20">
+        <v>6879.820037</v>
+      </c>
+      <c r="I20">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="J20">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.381206666666667</v>
+      </c>
+      <c r="N20">
+        <v>10.14362</v>
+      </c>
+      <c r="O20">
+        <v>0.4221501456709782</v>
+      </c>
+      <c r="P20">
+        <v>0.4221501456709781</v>
+      </c>
+      <c r="Q20">
+        <v>7754.031124857106</v>
+      </c>
+      <c r="R20">
+        <v>69786.28012371395</v>
+      </c>
+      <c r="S20">
+        <v>0.2202681527439542</v>
+      </c>
+      <c r="T20">
+        <v>0.2202681527439542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2293.273345666667</v>
+      </c>
+      <c r="H21">
+        <v>6879.820037</v>
+      </c>
+      <c r="I21">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="J21">
+        <v>0.5217768014597114</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.948103</v>
+      </c>
+      <c r="O21">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P21">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q21">
+        <v>1489.177561504424</v>
+      </c>
+      <c r="R21">
+        <v>13402.59805353981</v>
+      </c>
+      <c r="S21">
+        <v>0.04230294994932336</v>
+      </c>
+      <c r="T21">
+        <v>0.04230294994932336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.448603666666666</v>
+      </c>
+      <c r="H22">
+        <v>19.345811</v>
+      </c>
+      <c r="I22">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="J22">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5987749999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.796325</v>
+      </c>
+      <c r="O22">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="P22">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="Q22">
+        <v>3.861262660508333</v>
+      </c>
+      <c r="R22">
+        <v>34.751363944575</v>
+      </c>
+      <c r="S22">
+        <v>0.000109686584925212</v>
+      </c>
+      <c r="T22">
+        <v>0.000109686584925212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.448603666666666</v>
+      </c>
+      <c r="H23">
+        <v>19.345811</v>
+      </c>
+      <c r="I23">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="J23">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.09856</v>
+      </c>
+      <c r="N23">
+        <v>3.29568</v>
+      </c>
+      <c r="O23">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="P23">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="Q23">
+        <v>7.084178044053333</v>
+      </c>
+      <c r="R23">
+        <v>63.75760239647999</v>
+      </c>
+      <c r="S23">
+        <v>0.0002012396889239547</v>
+      </c>
+      <c r="T23">
+        <v>0.0002012396889239547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.448603666666666</v>
+      </c>
+      <c r="H24">
+        <v>19.345811</v>
+      </c>
+      <c r="I24">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="J24">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.281579</v>
+      </c>
+      <c r="N24">
+        <v>6.844737</v>
+      </c>
+      <c r="O24">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="P24">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="Q24">
+        <v>14.71299870518967</v>
+      </c>
+      <c r="R24">
+        <v>132.416988346707</v>
+      </c>
+      <c r="S24">
+        <v>0.0004179509978657767</v>
+      </c>
+      <c r="T24">
+        <v>0.0004179509978657766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.448603666666666</v>
+      </c>
+      <c r="H25">
+        <v>19.345811</v>
+      </c>
+      <c r="I25">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="J25">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.381206666666667</v>
+      </c>
+      <c r="N25">
+        <v>10.14362</v>
+      </c>
+      <c r="O25">
+        <v>0.4221501456709782</v>
+      </c>
+      <c r="P25">
+        <v>0.4221501456709781</v>
+      </c>
+      <c r="Q25">
+        <v>21.80406170842445</v>
+      </c>
+      <c r="R25">
+        <v>196.23655537582</v>
+      </c>
+      <c r="S25">
+        <v>0.0006193862672840827</v>
+      </c>
+      <c r="T25">
+        <v>0.0006193862672840825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.448603666666666</v>
+      </c>
+      <c r="H26">
+        <v>19.345811</v>
+      </c>
+      <c r="I26">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="J26">
+        <v>0.00146721794043115</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.948103</v>
+      </c>
+      <c r="O26">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P26">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q26">
+        <v>4.187514716281444</v>
+      </c>
+      <c r="R26">
+        <v>37.687632446533</v>
+      </c>
+      <c r="S26">
+        <v>0.0001189544014321241</v>
+      </c>
+      <c r="T26">
+        <v>0.0001189544014321242</v>
       </c>
     </row>
   </sheetData>
